--- a/교육/통합 문서1.xlsx
+++ b/교육/통합 문서1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimeunbee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A798ADD-D3C7-4E96-810C-400CBCD26064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCE432-1CF5-4FF8-B456-ACEE00F6D0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="885" windowWidth="28725" windowHeight="13575" xr2:uid="{E646062A-75FC-403E-A927-BBFE46F5F58C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>supply</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,39 +51,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>samsung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiaomi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gyeonggi-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipone4</t>
+    <t>KS013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEOUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWANGCHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAEGU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QM6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,18 +178,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -175,6 +207,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,144 +528,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7049BF2-454E-4821-901E-62C90D73E7A4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
